--- a/data/CAST_HOUSE.xlsx
+++ b/data/CAST_HOUSE.xlsx
@@ -846,7 +846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1174,6 +1174,30 @@
         <v>18</v>
       </c>
     </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5301</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>SAZ</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
